--- a/Data/Regression/Fred_data_quarterly.xlsx
+++ b/Data/Regression/Fred_data_quarterly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\PhD\Single Author\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\PhD\Github\Single-Author\Data\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16DF4D6E-470B-44FB-BEBF-2FAFEF6FF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EF0244-72A8-41B7-9FE9-13CCFCAEF40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DB3DC2E-5FA5-4F0D-BA93-822DCE940637}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,11 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,11 +459,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2383F17B-3015-4407-9A49-90F100C1F606}">
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -518,19 +524,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>21916</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>21916</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>33239</v>
       </c>
       <c r="F4" t="s">
@@ -583,19 +589,19 @@
       <c r="A8" s="2">
         <v>21916</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>12.553409147574801</v>
       </c>
       <c r="C8" s="2">
         <v>21916</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1.93798449612405</v>
       </c>
       <c r="E8" s="2">
         <v>33239</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>4.16326530612245</v>
       </c>
     </row>
@@ -603,19 +609,19 @@
       <c r="A9" s="2">
         <v>22007</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>11.6628155767444</v>
       </c>
       <c r="C9" s="2">
         <v>22007</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>2.2222222222222401</v>
       </c>
       <c r="E9" s="2">
         <v>33329</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>4.2897612302711599</v>
       </c>
     </row>
@@ -623,19 +629,19 @@
       <c r="A10" s="2">
         <v>22098</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>11.5371726677858</v>
       </c>
       <c r="C10" s="2">
         <v>22098</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1.24401913875598</v>
       </c>
       <c r="E10" s="2">
         <v>33420</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>4.6511627906976898</v>
       </c>
     </row>
@@ -643,19 +649,19 @@
       <c r="A11" s="2">
         <v>22190</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>9.7837919159521007</v>
       </c>
       <c r="C11" s="2">
         <v>22190</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0.75973409306741901</v>
       </c>
       <c r="E11" s="2">
         <v>33512</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>4.1567695961995303</v>
       </c>
     </row>
@@ -663,19 +669,19 @@
       <c r="A12" s="2">
         <v>22282</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>10.9463542152504</v>
       </c>
       <c r="C12" s="2">
         <v>22282</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>1.8060836501901101</v>
       </c>
       <c r="E12" s="2">
         <v>33604</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>4.1927899686520202</v>
       </c>
     </row>
@@ -683,19 +689,19 @@
       <c r="A13" s="2">
         <v>22372</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>7.74323770821539</v>
       </c>
       <c r="C13" s="2">
         <v>22372</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>1.9848771266540599</v>
       </c>
       <c r="E13" s="2">
         <v>33695</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>4.2297244858362202</v>
       </c>
     </row>
@@ -703,19 +709,19 @@
       <c r="A14" s="2">
         <v>22463</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>5.6955328842145896</v>
       </c>
       <c r="C14" s="2">
         <v>22463</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>2.6465028355387599</v>
       </c>
       <c r="E14" s="2">
         <v>33786</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>3.40996168582376</v>
       </c>
     </row>
@@ -723,19 +729,19 @@
       <c r="A15" s="2">
         <v>22555</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>3.5113139754701401</v>
       </c>
       <c r="C15" s="2">
         <v>22555</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>2.7332704995287598</v>
       </c>
       <c r="E15" s="2">
         <v>33878</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>3.2687191182059898</v>
       </c>
     </row>
@@ -743,19 +749,19 @@
       <c r="A16" s="2">
         <v>22647</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>6.6556273951973504</v>
       </c>
       <c r="C16" s="2">
         <v>22647</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>3.3613445378151301</v>
       </c>
       <c r="E16" s="2">
         <v>33970</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>3.4223392252726601</v>
       </c>
     </row>
@@ -763,19 +769,19 @@
       <c r="A17" s="2">
         <v>22737</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>7.7995963620381401</v>
       </c>
       <c r="C17" s="2">
         <v>22737</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>3.15106580166823</v>
       </c>
       <c r="E17" s="2">
         <v>34060</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>3.31347728965005</v>
       </c>
     </row>
@@ -783,19 +789,19 @@
       <c r="A18" s="2">
         <v>22828</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>10.353723465369701</v>
       </c>
       <c r="C18" s="2">
         <v>22828</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>2.3941068139963102</v>
       </c>
       <c r="E18" s="2">
         <v>34151</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>3.48277139681363</v>
       </c>
     </row>
@@ -803,19 +809,19 @@
       <c r="A19" s="2">
         <v>22920</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>8.3664033119009193</v>
       </c>
       <c r="C19" s="2">
         <v>22920</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>2.47706422018349</v>
       </c>
       <c r="E19" s="2">
         <v>34243</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>3.3124769966875198</v>
       </c>
     </row>
@@ -823,19 +829,19 @@
       <c r="A20" s="2">
         <v>23012</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1.7197452229299399</v>
       </c>
       <c r="C20" s="2">
         <v>23012</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>3.2520325203252098</v>
       </c>
       <c r="E20" s="2">
         <v>34335</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>3.05454545454544</v>
       </c>
     </row>
@@ -843,19 +849,19 @@
       <c r="A21" s="2">
         <v>23102</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>3.6778693722257398</v>
       </c>
       <c r="C21" s="2">
         <v>23102</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>2.8751123090745798</v>
       </c>
       <c r="E21" s="2">
         <v>34425</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>2.8468468468468502</v>
       </c>
     </row>
@@ -863,19 +869,19 @@
       <c r="A22" s="2">
         <v>23193</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>3.1307550644567002</v>
       </c>
       <c r="C22" s="2">
         <v>23193</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>2.4280575539568501</v>
       </c>
       <c r="E22" s="2">
         <v>34516</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>2.7568922305764301</v>
       </c>
     </row>
@@ -883,19 +889,19 @@
       <c r="A23" s="2">
         <v>23285</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>4.9159925326695602</v>
       </c>
       <c r="C23" s="2">
         <v>23285</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>3.3124440465532698</v>
       </c>
       <c r="E23" s="2">
         <v>34608</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>2.6718916993231101</v>
       </c>
     </row>
@@ -903,19 +909,19 @@
       <c r="A24" s="2">
         <v>23377</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>9.7056981840951497</v>
       </c>
       <c r="C24" s="2">
         <v>23377</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>2.2747156605424199</v>
       </c>
       <c r="E24" s="2">
         <v>34700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>2.57586450247004</v>
       </c>
     </row>
@@ -923,19 +929,19 @@
       <c r="A25" s="2">
         <v>23468</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>7.4617737003057796</v>
       </c>
       <c r="C25" s="2">
         <v>23468</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>2.0960698689956101</v>
       </c>
       <c r="E25" s="2">
         <v>34790</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>2.6629292221443399</v>
       </c>
     </row>
@@ -943,19 +949,19 @@
       <c r="A26" s="2">
         <v>23559</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>7.3214285714285801</v>
       </c>
       <c r="C26" s="2">
         <v>23559</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>2.7216856892010401</v>
       </c>
       <c r="E26" s="2">
         <v>34881</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>2.5087108013937498</v>
       </c>
     </row>
@@ -963,19 +969,19 @@
       <c r="A27" s="2">
         <v>23651</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>8.4816132858837392</v>
       </c>
       <c r="C27" s="2">
         <v>23651</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>2.2530329289428099</v>
       </c>
       <c r="E27" s="2">
         <v>34973</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>2.4635669673837599</v>
       </c>
     </row>
@@ -983,19 +989,19 @@
       <c r="A28" s="2">
         <v>23743</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>6.9063926940639497</v>
       </c>
       <c r="C28" s="2">
         <v>23743</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>2.0530367835757302</v>
       </c>
       <c r="E28" s="2">
         <v>35065</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>2.5085803859023499</v>
       </c>
     </row>
@@ -1003,19 +1009,19 @@
       <c r="A29" s="2">
         <v>23833</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>6.4314171883893101</v>
       </c>
       <c r="C29" s="2">
         <v>23833</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>3.0795551753635699</v>
       </c>
       <c r="E29" s="2">
         <v>35156</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>2.5046104173130801</v>
       </c>
     </row>
@@ -1023,19 +1029,19 @@
       <c r="A30" s="2">
         <v>23924</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>4.60343871325568</v>
       </c>
       <c r="C30" s="2">
         <v>23924</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>3.8461538461538698</v>
       </c>
       <c r="E30" s="2">
         <v>35247</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>2.1963355942154399</v>
       </c>
     </row>
@@ -1043,19 +1049,19 @@
       <c r="A31" s="2">
         <v>24016</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>3.8819026790595998</v>
       </c>
       <c r="C31" s="2">
         <v>24016</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>3.9830508474576098</v>
       </c>
       <c r="E31" s="2">
         <v>35339</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>2.1772061539882701</v>
       </c>
     </row>
@@ -1063,19 +1069,19 @@
       <c r="A32" s="2">
         <v>24108</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>2.8296849973304998</v>
       </c>
       <c r="C32" s="2">
         <v>24108</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>4.1072925398155702</v>
       </c>
       <c r="E32" s="2">
         <v>35431</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>1.95172543843108</v>
       </c>
     </row>
@@ -1083,19 +1089,19 @@
       <c r="A33" s="2">
         <v>24198</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>2.7807486631016101</v>
       </c>
       <c r="C33" s="2">
         <v>24198</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>4.0663900414937801</v>
       </c>
       <c r="E33" s="2">
         <v>35521</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>1.48744094672343</v>
       </c>
     </row>
@@ -1103,19 +1109,19 @@
       <c r="A34" s="2">
         <v>24289</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>0.84835630965004605</v>
       </c>
       <c r="C34" s="2">
         <v>24289</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>3.0452674897119199</v>
       </c>
       <c r="E34" s="2">
         <v>35612</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>1.71479300999905</v>
       </c>
     </row>
@@ -1123,19 +1129,19 @@
       <c r="A35" s="2">
         <v>24381</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>-1.9473684210526101</v>
       </c>
       <c r="C35" s="2">
         <v>24381</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>2.93398533007336</v>
       </c>
       <c r="E35" s="2">
         <v>35704</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>1.66682186423317</v>
       </c>
     </row>
@@ -1143,19 +1149,19 @@
       <c r="A36" s="2">
         <v>24473</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>-6.2305295950155903</v>
       </c>
       <c r="C36" s="2">
         <v>24473</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>2.4959742351046699</v>
       </c>
       <c r="E36" s="2">
         <v>35796</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>1.2300009248127299</v>
       </c>
     </row>
@@ -1163,19 +1169,19 @@
       <c r="A37" s="2">
         <v>24563</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>-6.4516129032257901</v>
       </c>
       <c r="C37" s="2">
         <v>24563</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>1.8341307814992001</v>
       </c>
       <c r="E37" s="2">
         <v>35886</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>1.47946720744802</v>
       </c>
     </row>
@@ -1183,19 +1189,19 @@
       <c r="A38" s="2">
         <v>24654</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>-2.57623554153523</v>
       </c>
       <c r="C38" s="2">
         <v>24654</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>1.7571884984025401</v>
       </c>
       <c r="E38" s="2">
         <v>35977</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>1.25867058661401</v>
       </c>
     </row>
@@ -1203,19 +1209,19 @@
       <c r="A39" s="2">
         <v>24746</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>4.2404723564143803</v>
       </c>
       <c r="C39" s="2">
         <v>24746</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>1.10847189231988</v>
       </c>
       <c r="E39" s="2">
         <v>36069</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>0.92965744641874704</v>
       </c>
     </row>
@@ -1223,19 +1229,19 @@
       <c r="A40" s="2">
         <v>24838</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>5.1495016611295696</v>
       </c>
       <c r="C40" s="2">
         <v>24838</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>1.4925373134328399</v>
       </c>
       <c r="E40" s="2">
         <v>36161</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>0.90443997807415899</v>
       </c>
     </row>
@@ -1243,19 +1249,19 @@
       <c r="A41" s="2">
         <v>24929</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>10.122358175750801</v>
       </c>
       <c r="C41" s="2">
         <v>24929</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>1.2529365700861299</v>
       </c>
       <c r="E41" s="2">
         <v>36251</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>1.0218911799436801</v>
       </c>
     </row>
@@ -1263,19 +1269,19 @@
       <c r="A42" s="2">
         <v>25020</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>11.764705882353001</v>
       </c>
       <c r="C42" s="2">
         <v>25020</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>1.33437990580848</v>
       </c>
       <c r="E42" s="2">
         <v>36342</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>1.1840493580728499</v>
       </c>
     </row>
@@ -1283,19 +1289,19 @@
       <c r="A43" s="2">
         <v>25112</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>10.4016477857878</v>
       </c>
       <c r="C43" s="2">
         <v>25112</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>1.8010963194988101</v>
       </c>
       <c r="E43" s="2">
         <v>36434</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>1.5790190117518701</v>
       </c>
     </row>
@@ -1303,19 +1309,19 @@
       <c r="A44" s="2">
         <v>25204</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>15.850447604002101</v>
       </c>
       <c r="C44" s="2">
         <v>25204</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>1.62538699690403</v>
       </c>
       <c r="E44" s="2">
         <v>36526</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>2.0054323223178301</v>
       </c>
     </row>
@@ -1323,19 +1329,19 @@
       <c r="A45" s="2">
         <v>25294</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>14.191919191919199</v>
       </c>
       <c r="C45" s="2">
         <v>25294</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>2.0108275328693002</v>
       </c>
       <c r="E45" s="2">
         <v>36617</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>1.9601672436272199</v>
       </c>
     </row>
@@ -1343,19 +1349,19 @@
       <c r="A46" s="2">
         <v>25385</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>11.781747947851199</v>
       </c>
       <c r="C46" s="2">
         <v>25385</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>2.0914020139426799</v>
       </c>
       <c r="E46" s="2">
         <v>36708</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>2.2507173601148001</v>
       </c>
     </row>
@@ -1363,19 +1369,19 @@
       <c r="A47" s="2">
         <v>25477</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>10.541044776119399</v>
       </c>
       <c r="C47" s="2">
         <v>25477</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>1.92307692307692</v>
       </c>
       <c r="E47" s="2">
         <v>36800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>2.5193192477777502</v>
       </c>
     </row>
@@ -1383,19 +1389,19 @@
       <c r="A48" s="2">
         <v>25569</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>9.1363636363636491</v>
       </c>
       <c r="C48" s="2">
         <v>25569</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>2.8941355674028899</v>
       </c>
       <c r="E48" s="2">
         <v>36892</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>2.1435228331779799</v>
       </c>
     </row>
@@ -1403,19 +1409,19 @@
       <c r="A49" s="2">
         <v>25659</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>8.1822202565236601</v>
       </c>
       <c r="C49" s="2">
         <v>25659</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>3.3358605003790802</v>
       </c>
       <c r="E49" s="2">
         <v>36982</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>2.9410467833678702</v>
       </c>
     </row>
@@ -1423,19 +1429,19 @@
       <c r="A50" s="2">
         <v>25750</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>5.2267818574514102</v>
       </c>
       <c r="C50" s="2">
         <v>25750</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>3.5660091047040998</v>
       </c>
       <c r="E50" s="2">
         <v>37073</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>2.4335701131281202</v>
       </c>
     </row>
@@ -1443,19 +1449,19 @@
       <c r="A51" s="2">
         <v>25842</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>2.6582278481012498</v>
       </c>
       <c r="C51" s="2">
         <v>25842</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" s="2">
         <v>37165</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51">
         <v>2.1436974423772299</v>
       </c>
     </row>
@@ -1463,19 +1469,19 @@
       <c r="A52" s="2">
         <v>25934</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>3.16534777176176</v>
       </c>
       <c r="C52" s="2">
         <v>25934</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>4.4411547002220697</v>
       </c>
       <c r="E52" s="2">
         <v>37257</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52">
         <v>2.5590893291623402</v>
       </c>
     </row>
@@ -1483,19 +1489,19 @@
       <c r="A53" s="2">
         <v>26024</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>0.69501226492231105</v>
       </c>
       <c r="C53" s="2">
         <v>26024</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>5.0623624358033599</v>
       </c>
       <c r="E53" s="2">
         <v>37347</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53">
         <v>2.1117107855735302</v>
       </c>
     </row>
@@ -1503,19 +1509,19 @@
       <c r="A54" s="2">
         <v>26115</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>0.86206896551724799</v>
       </c>
       <c r="C54" s="2">
         <v>26115</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>5.7875457875457901</v>
       </c>
       <c r="E54" s="2">
         <v>37438</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54">
         <v>2.10607422627456</v>
       </c>
     </row>
@@ -1523,19 +1529,19 @@
       <c r="A55" s="2">
         <v>26207</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>-0.20550760378132901</v>
       </c>
       <c r="C55" s="2">
         <v>26207</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>5.6603773584905701</v>
       </c>
       <c r="E55" s="2">
         <v>37530</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55">
         <v>2.29492812353369</v>
       </c>
     </row>
@@ -1543,19 +1549,19 @@
       <c r="A56" s="2">
         <v>26299</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1.0092854259184301</v>
       </c>
       <c r="C56" s="2">
         <v>26299</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>5.3153791637136596</v>
       </c>
       <c r="E56" s="2">
         <v>37622</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56">
         <v>2.3215420461766598</v>
       </c>
     </row>
@@ -1563,19 +1569,19 @@
       <c r="A57" s="2">
         <v>26390</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>2.3548518067397701</v>
       </c>
       <c r="C57" s="2">
         <v>26390</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>4.8882681564245898</v>
       </c>
       <c r="E57" s="2">
         <v>37712</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57">
         <v>1.9967280506732701</v>
       </c>
     </row>
@@ -1583,19 +1589,19 @@
       <c r="A58" s="2">
         <v>26481</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>3.0118030118030199</v>
       </c>
       <c r="C58" s="2">
         <v>26481</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>5.4709141274238204</v>
       </c>
       <c r="E58" s="2">
         <v>37803</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58">
         <v>2.0710183205466901</v>
       </c>
     </row>
@@ -1603,19 +1609,19 @@
       <c r="A59" s="2">
         <v>26573</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>7.2075782537067399</v>
       </c>
       <c r="C59" s="2">
         <v>26573</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>6.2500000000000098</v>
       </c>
       <c r="E59" s="2">
         <v>37895</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59">
         <v>2.0974938492973698</v>
       </c>
     </row>
@@ -1623,19 +1629,19 @@
       <c r="A60" s="2">
         <v>26665</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>7.3541167066347102</v>
       </c>
       <c r="C60" s="2">
         <v>26665</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>6.4602960969044601</v>
       </c>
       <c r="E60" s="2">
         <v>37987</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60">
         <v>1.73891442056888</v>
       </c>
     </row>
@@ -1643,19 +1649,19 @@
       <c r="A61" s="2">
         <v>26755</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>6.9813566045220199</v>
       </c>
       <c r="C61" s="2">
         <v>26755</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>7.3901464713715201</v>
       </c>
       <c r="E61" s="2">
         <v>38078</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61">
         <v>2.3236685173761198</v>
       </c>
     </row>
@@ -1663,19 +1669,19 @@
       <c r="A62" s="2">
         <v>26846</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>6.1635717107862504</v>
       </c>
       <c r="C62" s="2">
         <v>26846</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>6.9599474720945702</v>
       </c>
       <c r="E62" s="2">
         <v>38169</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62">
         <v>2.2959707561506502</v>
       </c>
     </row>
@@ -1683,19 +1689,19 @@
       <c r="A63" s="2">
         <v>26938</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>4.1106415674222196</v>
       </c>
       <c r="C63" s="2">
         <v>26938</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>7.3044602456367302</v>
       </c>
       <c r="E63" s="2">
         <v>38261</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63">
         <v>2.3443881718673301</v>
       </c>
     </row>
@@ -1703,19 +1709,19 @@
       <c r="A64" s="2">
         <v>27030</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>0.33507073715561903</v>
       </c>
       <c r="C64" s="2">
         <v>27030</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>7.4589127686472603</v>
       </c>
       <c r="E64" s="2">
         <v>38353</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64">
         <v>2.0713791559842001</v>
       </c>
     </row>
@@ -1723,19 +1729,19 @@
       <c r="A65" s="2">
         <v>27120</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" s="2">
         <v>27120</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>7.0675759454432496</v>
       </c>
       <c r="E65" s="2">
         <v>38443</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65">
         <v>2.0418006430868201</v>
       </c>
     </row>
@@ -1743,19 +1749,19 @@
       <c r="A66" s="2">
         <v>27211</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>-1.7491626349088301</v>
       </c>
       <c r="C66" s="2">
         <v>27211</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>6.9981583793738302</v>
       </c>
       <c r="E66" s="2">
         <v>38534</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66">
         <v>2.3126957359672402</v>
       </c>
     </row>
@@ -1763,19 +1769,19 @@
       <c r="A67" s="2">
         <v>27303</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>-5.6088560885608896</v>
       </c>
       <c r="C67" s="2">
         <v>27303</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>6.4457831325301003</v>
       </c>
       <c r="E67" s="2">
         <v>38626</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67">
         <v>2.3505467315827402</v>
       </c>
     </row>
@@ -1783,19 +1789,19 @@
       <c r="A68" s="2">
         <v>27395</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>-7.9035250463822004</v>
       </c>
       <c r="C68" s="2">
         <v>27395</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>5.8823529411764799</v>
       </c>
       <c r="E68" s="2">
         <v>38718</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68">
         <v>2.3443106610318099</v>
       </c>
     </row>
@@ -1803,19 +1809,19 @@
       <c r="A69" s="2">
         <v>27485</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>-8.9729328883945207</v>
       </c>
       <c r="C69" s="2">
         <v>27485</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>6.2536189924725099</v>
       </c>
       <c r="E69" s="2">
         <v>38808</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69">
         <v>2.4854261855995001</v>
       </c>
     </row>
@@ -1823,19 +1829,19 @@
       <c r="A70" s="2">
         <v>27576</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>-7.2348484848484897</v>
       </c>
       <c r="C70" s="2">
         <v>27576</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>6.0814687320711398</v>
       </c>
       <c r="E70" s="2">
         <v>38899</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70">
         <v>2.1937053606467201</v>
       </c>
     </row>
@@ -1843,19 +1849,19 @@
       <c r="A71" s="2">
         <v>27668</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>-0.35183737294763301</v>
       </c>
       <c r="C71" s="2">
         <v>27668</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>5.4329371816638403</v>
       </c>
       <c r="E71" s="2">
         <v>38991</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71">
         <v>1.8091784614184701</v>
       </c>
     </row>
@@ -1863,19 +1869,19 @@
       <c r="A72" s="2">
         <v>27760</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>5.76148267526189</v>
       </c>
       <c r="C72" s="2">
         <v>27760</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>5.2222222222222303</v>
       </c>
       <c r="E72" s="2">
         <v>39083</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72">
         <v>1.8971562134787801</v>
       </c>
     </row>
@@ -1883,19 +1889,19 @@
       <c r="A73" s="2">
         <v>27851</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>8.9613034623217906</v>
       </c>
       <c r="C73" s="2">
         <v>27851</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>4.3051771117166204</v>
       </c>
       <c r="E73" s="2">
         <v>39173</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73">
         <v>1.91398593335639</v>
       </c>
     </row>
@@ -1903,19 +1909,19 @@
       <c r="A74" s="2">
         <v>27942</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>8.8607594936708995</v>
       </c>
       <c r="C74" s="2">
         <v>27942</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>3.78583017847486</v>
       </c>
       <c r="E74" s="2">
         <v>39264</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74">
         <v>1.9123689566452999</v>
       </c>
     </row>
@@ -1923,19 +1929,19 @@
       <c r="A75" s="2">
         <v>28034</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>6.51235778736757</v>
       </c>
       <c r="C75" s="2">
         <v>28034</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>3.7037037037037202</v>
       </c>
       <c r="E75" s="2">
         <v>39356</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75">
         <v>2.9297997012753298</v>
       </c>
     </row>
@@ -1943,19 +1949,19 @@
       <c r="A76" s="2">
         <v>28126</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>4.2666666666666702</v>
       </c>
       <c r="C76" s="2">
         <v>28126</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>3.80147835269273</v>
       </c>
       <c r="E76" s="2">
         <v>39448</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76">
         <v>3.4216462132507601</v>
       </c>
     </row>
@@ -1963,19 +1969,19 @@
       <c r="A77" s="2">
         <v>28216</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>1.8317757009345801</v>
       </c>
       <c r="C77" s="2">
         <v>28216</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>3.81400208986418</v>
       </c>
       <c r="E77" s="2">
         <v>39539</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77">
         <v>3.7070558509635299</v>
       </c>
     </row>
@@ -1983,19 +1989,19 @@
       <c r="A78" s="2">
         <v>28307</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>1.6129032258064699</v>
       </c>
       <c r="C78" s="2">
         <v>28307</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>3.8561750911933501</v>
       </c>
       <c r="E78" s="2">
         <v>39630</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78">
         <v>3.9112249896378701</v>
       </c>
     </row>
@@ -2003,19 +2009,19 @@
       <c r="A79" s="2">
         <v>28399</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>1.6206261510129101</v>
       </c>
       <c r="C79" s="2">
         <v>28399</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79">
         <v>3.4679089026915002</v>
       </c>
       <c r="E79" s="2">
         <v>39722</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79">
         <v>2.35526119958327</v>
       </c>
     </row>
@@ -2023,19 +2029,19 @@
       <c r="A80" s="2">
         <v>28491</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>-0.18268176835949801</v>
       </c>
       <c r="C80" s="2">
         <v>28491</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80">
         <v>3.00101729399795</v>
       </c>
       <c r="E80" s="2">
         <v>39814</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80">
         <v>1.0165606979151101</v>
       </c>
     </row>
@@ -2043,19 +2049,19 @@
       <c r="A81" s="2">
         <v>28581</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>-0.36710719530100899</v>
       </c>
       <c r="C81" s="2">
         <v>28581</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>2.8686462003019302</v>
       </c>
       <c r="E81" s="2">
         <v>39904</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81">
         <v>0.20000000000000201</v>
       </c>
     </row>
@@ -2063,19 +2069,19 @@
       <c r="A82" s="2">
         <v>28672</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>3.6544850498338701</v>
       </c>
       <c r="C82" s="2">
         <v>28672</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>2.5087807325639599</v>
       </c>
       <c r="E82" s="2">
         <v>39995</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82">
         <v>-0.35899481451934301</v>
       </c>
     </row>
@@ -2083,19 +2089,19 @@
       <c r="A83" s="2">
         <v>28764</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>3.04458137006162</v>
       </c>
       <c r="C83" s="2">
         <v>28764</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>2.5012506253126401</v>
       </c>
       <c r="E83" s="2">
         <v>40087</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83">
         <v>0.42168017739649</v>
       </c>
     </row>
@@ -2103,19 +2109,19 @@
       <c r="A84" s="2">
         <v>28856</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>3.5871156661786201</v>
       </c>
       <c r="C84" s="2">
         <v>28856</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>2.9135802469135799</v>
       </c>
       <c r="E84" s="2">
         <v>40179</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84">
         <v>1.0978153474585699</v>
       </c>
     </row>
@@ -2123,19 +2129,19 @@
       <c r="A85" s="2">
         <v>28946</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>7.4428887251289497</v>
       </c>
       <c r="C85" s="2">
         <v>28946</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>3.2778864970645998</v>
       </c>
       <c r="E85" s="2">
         <v>40269</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85">
         <v>1.59317728180003</v>
       </c>
     </row>
@@ -2143,19 +2149,19 @@
       <c r="A86" s="2">
         <v>29037</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>4.7364672364672202</v>
       </c>
       <c r="C86" s="2">
         <v>29037</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86">
         <v>4.6500244738130103</v>
       </c>
       <c r="E86" s="2">
         <v>40360</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86">
         <v>1.7177378266249399</v>
       </c>
     </row>
@@ -2163,19 +2169,19 @@
       <c r="A87" s="2">
         <v>29129</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>4.2208934224410903</v>
       </c>
       <c r="C87" s="2">
         <v>29129</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87">
         <v>5.3196681307954998</v>
       </c>
       <c r="E87" s="2">
         <v>40452</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87">
         <v>2.03076923076922</v>
       </c>
     </row>
@@ -2183,19 +2189,19 @@
       <c r="A88" s="2">
         <v>29221</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>5.6183745583038798</v>
       </c>
       <c r="C88" s="2">
         <v>29221</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88">
         <v>5.5182341650671702</v>
       </c>
       <c r="E88" s="2">
         <v>40544</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88">
         <v>2.47945850074202</v>
       </c>
     </row>
@@ -2203,19 +2209,19 @@
       <c r="A89" s="2">
         <v>29312</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>0.44581618655692101</v>
       </c>
       <c r="C89" s="2">
         <v>29312</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>5.9213642823306403</v>
       </c>
       <c r="E89" s="2">
         <v>40634</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>2.7648781881831899</v>
       </c>
     </row>
@@ -2223,19 +2229,19 @@
       <c r="A90" s="2">
         <v>29403</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>-1.5640938456307301</v>
       </c>
       <c r="C90" s="2">
         <v>29403</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>5.1917680074836401</v>
       </c>
       <c r="E90" s="2">
         <v>40725</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>2.7119856887298699</v>
       </c>
     </row>
@@ -2243,19 +2249,19 @@
       <c r="A91" s="2">
         <v>29495</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>-3.4087073911576402</v>
       </c>
       <c r="C91" s="2">
         <v>29495</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>5.1436515291937104</v>
       </c>
       <c r="E91" s="2">
         <v>40817</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>2.9411764705882302</v>
       </c>
     </row>
@@ -2263,19 +2269,19 @@
       <c r="A92" s="2">
         <v>29587</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>-3.9812646370023499</v>
       </c>
       <c r="C92" s="2">
         <v>29587</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>5.7298772169167798</v>
       </c>
       <c r="E92" s="2">
         <v>40909</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>2.69497033060187</v>
       </c>
     </row>
@@ -2283,19 +2289,19 @@
       <c r="A93" s="2">
         <v>29677</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>-2.5606008876749802</v>
       </c>
       <c r="C93" s="2">
         <v>29677</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>5.81395348837209</v>
       </c>
       <c r="E93" s="2">
         <v>41000</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>2.4541156840934399</v>
       </c>
     </row>
@@ -2303,19 +2309,19 @@
       <c r="A94" s="2">
         <v>29768</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>-0.96718480138168805</v>
       </c>
       <c r="C94" s="2">
         <v>29768</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>6.6696309470876001</v>
       </c>
       <c r="E94" s="2">
         <v>41091</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>2.5463285495332402</v>
       </c>
     </row>
@@ -2323,19 +2329,19 @@
       <c r="A95" s="2">
         <v>29860</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>0.104821802935022</v>
       </c>
       <c r="C95" s="2">
         <v>29860</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>7.1397091229616603</v>
       </c>
       <c r="E95" s="2">
         <v>41183</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>2.3022574530415301</v>
       </c>
     </row>
@@ -2343,19 +2349,19 @@
       <c r="A96" s="2">
         <v>29952</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>-0.766550522648074</v>
       </c>
       <c r="C96" s="2">
         <v>29952</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>5.8924731182795602</v>
       </c>
       <c r="E96" s="2">
         <v>41275</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>1.8572656921754001</v>
       </c>
     </row>
@@ -2363,19 +2369,19 @@
       <c r="A97" s="2">
         <v>30042</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>-0.84092501751925097</v>
       </c>
       <c r="C97" s="2">
         <v>30042</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>5.3677092138630504</v>
       </c>
       <c r="E97" s="2">
         <v>41365</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>1.4046278075592</v>
       </c>
     </row>
@@ -2383,19 +2389,19 @@
       <c r="A98" s="2">
         <v>30133</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>-4.9529124520404597</v>
       </c>
       <c r="C98" s="2">
         <v>30133</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>5.0854522717799</v>
       </c>
       <c r="E98" s="2">
         <v>41456</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>1.3349638234994401</v>
       </c>
     </row>
@@ -2403,19 +2409,19 @@
       <c r="A99" s="2">
         <v>30225</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>-6.1780104712041801</v>
       </c>
       <c r="C99" s="2">
         <v>30225</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>4.6482928835869997</v>
       </c>
       <c r="E99" s="2">
         <v>41548</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>0.808543610821021</v>
       </c>
     </row>
@@ -2423,19 +2429,19 @@
       <c r="A100" s="2">
         <v>30317</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>-4.2485955056179696</v>
       </c>
       <c r="C100" s="2">
         <v>30317</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>4.0617384240454903</v>
       </c>
       <c r="E100" s="2">
         <v>41640</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>0.64156677359447001</v>
       </c>
     </row>
@@ -2443,19 +2449,19 @@
       <c r="A101" s="2">
         <v>30407</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>-1.1660777385159</v>
       </c>
       <c r="C101" s="2">
         <v>30407</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>3.2892097874047401</v>
       </c>
       <c r="E101" s="2">
         <v>41730</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>0.55875267665955697</v>
       </c>
     </row>
@@ -2463,19 +2469,19 @@
       <c r="A102" s="2">
         <v>30498</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>1.50458715596329</v>
       </c>
       <c r="C102" s="2">
         <v>30498</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>3.1336771122570299</v>
       </c>
       <c r="E102" s="2">
         <v>41821</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>0.35197103781175199</v>
       </c>
     </row>
@@ -2483,19 +2489,19 @@
       <c r="A103" s="2">
         <v>30590</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>6.2872023809523503</v>
       </c>
       <c r="C103" s="2">
         <v>30590</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>2.71226415094341</v>
       </c>
       <c r="E103" s="2">
         <v>41913</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>0.16375363432811299</v>
       </c>
     </row>
@@ -2503,19 +2509,19 @@
       <c r="A104" s="2">
         <v>30682</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>5.3905390539053704</v>
       </c>
       <c r="C104" s="2">
         <v>30682</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>2.8493364558938499</v>
       </c>
       <c r="E104" s="2">
         <v>42005</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>-0.32209360845496599</v>
       </c>
     </row>
@@ -2523,19 +2529,19 @@
       <c r="A105" s="2">
         <v>30773</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>-1.46585627457991</v>
       </c>
       <c r="C105" s="2">
         <v>30773</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105">
         <v>2.8349514563106899</v>
       </c>
       <c r="E105" s="2">
         <v>42095</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105">
         <v>0.43586757611043803</v>
       </c>
     </row>
@@ -2543,19 +2549,19 @@
       <c r="A106" s="2">
         <v>30864</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>4.8806941431670197</v>
       </c>
       <c r="C106" s="2">
         <v>30864</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106">
         <v>1.8846153846153899</v>
       </c>
       <c r="E106" s="2">
         <v>42186</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106">
         <v>0.39416107158362701</v>
       </c>
     </row>
@@ -2563,19 +2569,19 @@
       <c r="A107" s="2">
         <v>30956</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>2.9401470073503901</v>
       </c>
       <c r="C107" s="2">
         <v>30956</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107">
         <v>2.06659012629162</v>
       </c>
       <c r="E107" s="2">
         <v>42278</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107">
         <v>0.25690644601627599</v>
       </c>
     </row>
@@ -2583,19 +2589,19 @@
       <c r="A108" s="2">
         <v>31048</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>3.40988169798191</v>
       </c>
       <c r="C108" s="2">
         <v>31048</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108">
         <v>2.31499051233396</v>
       </c>
       <c r="E108" s="2">
         <v>42370</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108">
         <v>5.3855733952679598E-2</v>
       </c>
     </row>
@@ -2603,19 +2609,19 @@
       <c r="A109" s="2">
         <v>31138</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>8.6357039187227809</v>
       </c>
       <c r="C109" s="2">
         <v>31138</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109">
         <v>2.3036253776434998</v>
       </c>
       <c r="E109" s="2">
         <v>42461</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109">
         <v>-0.10932220234546799</v>
       </c>
     </row>
@@ -2623,19 +2629,19 @@
       <c r="A110" s="2">
         <v>31229</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>4.1020337814546997</v>
       </c>
       <c r="C110" s="2">
         <v>31229</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>2.0762551906379998</v>
       </c>
       <c r="E110" s="2">
         <v>42552</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110">
         <v>0.26285143902848501</v>
       </c>
     </row>
@@ -2643,19 +2649,19 @@
       <c r="A111" s="2">
         <v>31321</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>3.8082284937096</v>
       </c>
       <c r="C111" s="2">
         <v>31321</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111">
         <v>1.5748031496063</v>
       </c>
       <c r="E111" s="2">
         <v>42644</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111">
         <v>0.73213750873571803</v>
       </c>
     </row>
@@ -2663,19 +2669,19 @@
       <c r="A112" s="2">
         <v>31413</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112">
         <v>3.0955585464333901</v>
       </c>
       <c r="C112" s="2">
         <v>31413</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112">
         <v>0.74183976261128803</v>
       </c>
       <c r="E112" s="2">
         <v>42736</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112">
         <v>1.73591253153911</v>
       </c>
     </row>
@@ -2683,19 +2689,19 @@
       <c r="A113" s="2">
         <v>31503</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113">
         <v>2.6052104208416802</v>
       </c>
       <c r="C113" s="2">
         <v>31503</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113">
         <v>0</v>
       </c>
       <c r="E113" s="2">
         <v>42826</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113">
         <v>1.5255530129672099</v>
       </c>
     </row>
@@ -2703,19 +2709,19 @@
       <c r="A114" s="2">
         <v>31594</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>1.82119205298012</v>
       </c>
       <c r="C114" s="2">
         <v>31594</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
         <v>-0.332840236686406</v>
       </c>
       <c r="E114" s="2">
         <v>42917</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114">
         <v>1.4800557509789301</v>
       </c>
     </row>
@@ -2723,19 +2729,19 @@
       <c r="A115" s="2">
         <v>31686</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>0.32754667540124599</v>
       </c>
       <c r="C115" s="2">
         <v>31686</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115">
         <v>-0.92284976005907204</v>
       </c>
       <c r="E115" s="2">
         <v>43009</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115">
         <v>1.4139879084211799</v>
       </c>
     </row>
@@ -2743,19 +2749,19 @@
       <c r="A116" s="2">
         <v>31778</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>-0.97911227154047198</v>
       </c>
       <c r="C116" s="2">
         <v>31778</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116">
         <v>-0.51546391752578702</v>
       </c>
       <c r="E116" s="2">
         <v>43101</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116">
         <v>1.26979927912436</v>
       </c>
     </row>
@@ -2763,19 +2769,19 @@
       <c r="A117" s="2">
         <v>31868</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>0.74869791666666197</v>
       </c>
       <c r="C117" s="2">
         <v>31868</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117">
         <v>3.6913990402343298E-2</v>
       </c>
       <c r="E117" s="2">
         <v>43191</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117">
         <v>1.71495769771013</v>
       </c>
     </row>
@@ -2783,19 +2789,19 @@
       <c r="A118" s="2">
         <v>31959</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>-0.26016260162601001</v>
       </c>
       <c r="C118" s="2">
         <v>31959</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118">
         <v>0.51948051948053298</v>
       </c>
       <c r="E118" s="2">
         <v>43282</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118">
         <v>2.1190320470896098</v>
       </c>
     </row>
@@ -2803,19 +2809,19 @@
       <c r="A119" s="2">
         <v>32051</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>1.99151158994449</v>
       </c>
       <c r="C119" s="2">
         <v>32051</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119">
         <v>0.96870342771981199</v>
       </c>
       <c r="E119" s="2">
         <v>43374</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119">
         <v>1.9089813336808199</v>
       </c>
     </row>
@@ -2823,19 +2829,19 @@
       <c r="A120" s="2">
         <v>32143</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>3.0982201713908899</v>
       </c>
       <c r="C120" s="2">
         <v>32143</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120">
         <v>0.96225018504812199</v>
       </c>
       <c r="E120" s="2">
         <v>43466</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120">
         <v>1.4269387755102001</v>
       </c>
     </row>
@@ -2843,19 +2849,19 @@
       <c r="A121" s="2">
         <v>32234</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121">
         <v>2.2940226171244</v>
       </c>
       <c r="C121" s="2">
         <v>32234</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121">
         <v>1.1439114391144001</v>
       </c>
       <c r="E121" s="2">
         <v>43556</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121">
         <v>1.40342989273556</v>
       </c>
     </row>
@@ -2863,19 +2869,19 @@
       <c r="A122" s="2">
         <v>32325</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>4.4016954678838998</v>
       </c>
       <c r="C122" s="2">
         <v>32325</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122">
         <v>1.29198966408267</v>
       </c>
       <c r="E122" s="2">
         <v>43647</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122">
         <v>0.95427180735237804</v>
       </c>
     </row>
@@ -2883,19 +2889,19 @@
       <c r="A123" s="2">
         <v>32417</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>4.5134443021767297</v>
       </c>
       <c r="C123" s="2">
         <v>32417</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123">
         <v>1.69741697416974</v>
       </c>
       <c r="E123" s="2">
         <v>43739</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123">
         <v>1.0037400505066401</v>
       </c>
     </row>
@@ -2903,19 +2909,19 @@
       <c r="A124" s="2">
         <v>32509</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>4.5396419437340301</v>
       </c>
       <c r="C124" s="2">
         <v>32509</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124">
         <v>2.4193548387096899</v>
       </c>
       <c r="E124" s="2">
         <v>43831</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124">
         <v>1.10746249436611</v>
       </c>
     </row>
@@ -2923,19 +2929,19 @@
       <c r="A125" s="2">
         <v>32599</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>4.7378395451674002</v>
       </c>
       <c r="C125" s="2">
         <v>32599</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125">
         <v>2.88215979569499</v>
       </c>
       <c r="E125" s="2">
         <v>43922</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125">
         <v>0.22169437846394999</v>
       </c>
     </row>
@@ -2943,19 +2949,19 @@
       <c r="A126" s="2">
         <v>32690</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>5.1217988757026998</v>
       </c>
       <c r="C126" s="2">
         <v>32690</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126">
         <v>2.80612244897958</v>
       </c>
       <c r="E126" s="2">
         <v>44013</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126">
         <v>-3.1719850282303202E-2</v>
       </c>
     </row>
@@ -2963,19 +2969,19 @@
       <c r="A127" s="2">
         <v>32782</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>4.5329249617151497</v>
       </c>
       <c r="C127" s="2">
         <v>32782</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127">
         <v>3.0116110304789601</v>
       </c>
       <c r="E127" s="2">
         <v>44105</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127">
         <v>-0.27534259581604897</v>
       </c>
     </row>
@@ -2983,19 +2989,19 @@
       <c r="A128" s="2">
         <v>32874</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128">
         <v>5.5351681957186196</v>
       </c>
       <c r="C128" s="2">
         <v>32874</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128">
         <v>2.7201145311381301</v>
       </c>
       <c r="E128" s="2">
         <v>44197</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128">
         <v>1.06030694771701</v>
       </c>
     </row>
@@ -3003,19 +3009,19 @@
       <c r="A129" s="2">
         <v>32964</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129">
         <v>4.5235223160434197</v>
       </c>
       <c r="C129" s="2">
         <v>32964</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129">
         <v>2.3049645390070901</v>
       </c>
       <c r="E129" s="2">
         <v>44287</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129">
         <v>1.83599304787489</v>
       </c>
     </row>
@@ -3023,19 +3029,19 @@
       <c r="A130" s="2">
         <v>33055</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130">
         <v>5.5555555555555598</v>
       </c>
       <c r="C130" s="2">
         <v>33055</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130">
         <v>2.72952853598016</v>
       </c>
       <c r="E130" s="2">
         <v>44378</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130">
         <v>2.82713542327707</v>
       </c>
     </row>
@@ -3043,19 +3049,19 @@
       <c r="A131" s="2">
         <v>33147</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>5.27395253442719</v>
       </c>
       <c r="C131" s="2">
         <v>33147</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131">
         <v>3.0292356463543402</v>
       </c>
       <c r="E131" s="2">
         <v>44470</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131">
         <v>4.6271025071405898</v>
       </c>
     </row>
@@ -3063,19 +3069,19 @@
       <c r="A132" s="2">
         <v>33239</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>6.5233260535761604</v>
       </c>
       <c r="C132" s="2">
         <v>33239</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132">
         <v>2.8425148058228</v>
       </c>
       <c r="E132" s="2">
         <v>44562</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132">
         <v>6.1470115630612101</v>
       </c>
     </row>
@@ -3083,19 +3089,19 @@
       <c r="A133" s="2">
         <v>33329</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133">
         <v>4.7067408197032501</v>
       </c>
       <c r="C133" s="2">
         <v>33329</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133">
         <v>3.2991597233100101</v>
       </c>
       <c r="E133" s="2">
         <v>44652</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133">
         <v>8.0462980202321095</v>
       </c>
     </row>
@@ -3103,19 +3109,19 @@
       <c r="A134" s="2">
         <v>33420</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134">
         <v>0.31887540941270398</v>
       </c>
       <c r="C134" s="2">
         <v>33420</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134">
         <v>4.5135179182587004</v>
       </c>
       <c r="E134" s="2">
         <v>44743</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134">
         <v>9.3128027895207808</v>
       </c>
     </row>
@@ -3123,13 +3129,13 @@
       <c r="A135" s="2">
         <v>33512</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135">
         <v>0.73517221774955599</v>
       </c>
       <c r="C135" s="2">
         <v>33512</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135">
         <v>5.50437317784258</v>
       </c>
     </row>
@@ -3137,13 +3143,13 @@
       <c r="A136" s="2">
         <v>33604</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136">
         <v>0.26443367122079903</v>
       </c>
       <c r="C136" s="2">
         <v>33604</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136">
         <v>5.9108527131782997</v>
       </c>
     </row>
@@ -3151,13 +3157,13 @@
       <c r="A137" s="2">
         <v>33695</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137">
         <v>-0.93750000000001998</v>
       </c>
       <c r="C137" s="2">
         <v>33695</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137">
         <v>6.0940499040307099</v>
       </c>
     </row>
@@ -3165,13 +3171,13 @@
       <c r="A138" s="2">
         <v>33786</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138">
         <v>-2.3181818181818099</v>
       </c>
       <c r="C138" s="2">
         <v>33786</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138">
         <v>4.9575070821529703</v>
       </c>
     </row>
@@ -3179,13 +3185,13 @@
       <c r="A139" s="2">
         <v>33878</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>-5.9086839749328499</v>
       </c>
       <c r="C139" s="2">
         <v>33878</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139">
         <v>3.33642261353106</v>
       </c>
     </row>
@@ -3193,13 +3199,13 @@
       <c r="A140" s="2">
         <v>33970</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>-11.032967032967001</v>
       </c>
       <c r="C140" s="2">
         <v>33970</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140">
         <v>4.6660567246111597</v>
       </c>
     </row>
@@ -3207,13 +3213,13 @@
       <c r="A141" s="2">
         <v>34060</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141">
         <v>-10.049571879224899</v>
       </c>
       <c r="C141" s="2">
         <v>34060</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141">
         <v>4.3871551334237697</v>
       </c>
     </row>
@@ -3221,13 +3227,13 @@
       <c r="A142" s="2">
         <v>34151</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142">
         <v>-7.2126570497906197</v>
       </c>
       <c r="C142" s="2">
         <v>34151</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142">
         <v>4.5434098065677402</v>
       </c>
     </row>
@@ -3235,13 +3241,13 @@
       <c r="A143" s="2">
         <v>34243</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143">
         <v>-4.2816365366317699</v>
       </c>
       <c r="C143" s="2">
         <v>34243</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143">
         <v>4.3049327354260001</v>
       </c>
     </row>
@@ -3249,13 +3255,13 @@
       <c r="A144" s="2">
         <v>34335</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>0.29644268774703197</v>
       </c>
       <c r="C144" s="2">
         <v>34335</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144">
         <v>2.9720279720279401</v>
       </c>
     </row>
@@ -3263,13 +3269,13 @@
       <c r="A145" s="2">
         <v>34425</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145">
         <v>3.0561122244488801</v>
       </c>
       <c r="C145" s="2">
         <v>34425</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145">
         <v>2.7729636048527002</v>
       </c>
     </row>
@@ -3277,13 +3283,13 @@
       <c r="A146" s="2">
         <v>34516</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>3.5606820461384299</v>
       </c>
       <c r="C146" s="2">
         <v>34516</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146">
         <v>2.58175559380377</v>
       </c>
     </row>
@@ -3291,13 +3297,13 @@
       <c r="A147" s="2">
         <v>34608</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>5.9642147117296203</v>
       </c>
       <c r="C147" s="2">
         <v>34608</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147">
         <v>2.45055889939812</v>
       </c>
     </row>
@@ -3305,13 +3311,13 @@
       <c r="A148" s="2">
         <v>34700</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>3.74384236453202</v>
       </c>
       <c r="C148" s="2">
         <v>34700</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148">
         <v>2.0797962648557</v>
       </c>
     </row>
@@ -3319,13 +3325,13 @@
       <c r="A149" s="2">
         <v>34790</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149">
         <v>2.6737967914438698</v>
       </c>
       <c r="C149" s="2">
         <v>34790</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149">
         <v>1.7284991568296899</v>
       </c>
     </row>
@@ -3333,13 +3339,13 @@
       <c r="A150" s="2">
         <v>34881</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150">
         <v>1.3075060532687699</v>
       </c>
       <c r="C150" s="2">
         <v>34881</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150">
         <v>1.5520134228188001</v>
       </c>
     </row>
@@ -3347,13 +3353,13 @@
       <c r="A151" s="2">
         <v>34973</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151">
         <v>-3.0956848030018902</v>
       </c>
       <c r="C151" s="2">
         <v>34973</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151">
         <v>1.4687368862778001</v>
       </c>
     </row>
@@ -3361,13 +3367,13 @@
       <c r="A152" s="2">
         <v>35065</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152">
         <v>-1.80436847103514</v>
       </c>
       <c r="C152" s="2">
         <v>35065</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152">
         <v>1.45530145530147</v>
       </c>
     </row>
@@ -3375,13 +3381,13 @@
       <c r="A153" s="2">
         <v>35156</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>-1.5151515151515</v>
       </c>
       <c r="C153" s="2">
         <v>35156</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153">
         <v>1.4504765851637</v>
       </c>
     </row>
@@ -3389,13 +3395,13 @@
       <c r="A154" s="2">
         <v>35247</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>9.5602294455071193E-2</v>
       </c>
       <c r="C154" s="2">
         <v>35247</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154">
         <v>1.36307311028501</v>
       </c>
     </row>
@@ -3403,13 +3409,13 @@
       <c r="A155" s="2">
         <v>35339</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155">
         <v>1.8877057115198399</v>
       </c>
       <c r="C155" s="2">
         <v>35339</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155">
         <v>1.5301902398676701</v>
       </c>
     </row>
@@ -3417,13 +3423,13 @@
       <c r="A156" s="2">
         <v>35431</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156">
         <v>2.3210831721469898</v>
       </c>
       <c r="C156" s="2">
         <v>35431</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156">
         <v>1.7622950819672001</v>
       </c>
     </row>
@@ -3431,13 +3437,13 @@
       <c r="A157" s="2">
         <v>35521</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157">
         <v>3.02884615384614</v>
       </c>
       <c r="C157" s="2">
         <v>35521</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157">
         <v>1.55228758169935</v>
       </c>
     </row>
@@ -3445,13 +3451,13 @@
       <c r="A158" s="2">
         <v>35612</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158">
         <v>3.7249283667621702</v>
       </c>
       <c r="C158" s="2">
         <v>35612</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158">
         <v>2.3227383863080702</v>
       </c>
     </row>
@@ -3459,13 +3465,13 @@
       <c r="A159" s="2">
         <v>35704</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159">
         <v>4.7505938242280399</v>
       </c>
       <c r="C159" s="2">
         <v>35704</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159">
         <v>2.1181262729124102</v>
       </c>
     </row>
@@ -3473,13 +3479,13 @@
       <c r="A160" s="2">
         <v>35796</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>6.4744801512287298</v>
       </c>
       <c r="C160" s="2">
         <v>35796</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160">
         <v>1.2484897301651301</v>
       </c>
     </row>
@@ -3487,13 +3493,13 @@
       <c r="A161" s="2">
         <v>35886</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>5.0863275781614803</v>
       </c>
       <c r="C161" s="2">
         <v>35886</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161">
         <v>1.3676588897827699</v>
       </c>
     </row>
@@ -3501,13 +3507,13 @@
       <c r="A162" s="2">
         <v>35977</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162">
         <v>3.7292817679557899</v>
       </c>
       <c r="C162" s="2">
         <v>35977</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162">
         <v>0.59737156511351197</v>
       </c>
     </row>
@@ -3515,13 +3521,13 @@
       <c r="A163" s="2">
         <v>36069</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163">
         <v>0.86167800453513299</v>
       </c>
       <c r="C163" s="2">
         <v>36069</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163">
         <v>0.43877143996809398</v>
       </c>
     </row>
@@ -3529,13 +3535,13 @@
       <c r="A164" s="2">
         <v>36161</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164">
         <v>-0.88770528184643704</v>
       </c>
       <c r="C164" s="2">
         <v>36161</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164">
         <v>0.198886237072389</v>
       </c>
     </row>
@@ -3543,13 +3549,13 @@
       <c r="A165" s="2">
         <v>36251</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165">
         <v>8.8809946714006396E-2</v>
       </c>
       <c r="C165" s="2">
         <v>36251</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165">
         <v>0.51587301587300904</v>
       </c>
     </row>
@@ -3557,13 +3563,13 @@
       <c r="A166" s="2">
         <v>36342</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166">
         <v>1.5534842432312499</v>
       </c>
       <c r="C166" s="2">
         <v>36342</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166">
         <v>0.673000791765624</v>
       </c>
     </row>
@@ -3571,13 +3577,13 @@
       <c r="A167" s="2">
         <v>36434</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167">
         <v>3.9568345323741001</v>
       </c>
       <c r="C167" s="2">
         <v>36434</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167">
         <v>0.95313741064336599</v>
       </c>
     </row>
@@ -3585,13 +3591,13 @@
       <c r="A168" s="2">
         <v>36526</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>4.5230631437528297</v>
       </c>
       <c r="C168" s="2">
         <v>36526</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168">
         <v>1.54823342596266</v>
       </c>
     </row>
@@ -3599,13 +3605,13 @@
       <c r="A169" s="2">
         <v>36617</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>6.6992014196983298</v>
       </c>
       <c r="C169" s="2">
         <v>36617</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169">
         <v>1.1054086063955699</v>
       </c>
     </row>
@@ -3613,13 +3619,13 @@
       <c r="A170" s="2">
         <v>36708</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170">
         <v>6.8181818181818201</v>
       </c>
       <c r="C170" s="2">
         <v>36708</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170">
         <v>1.37632717263075</v>
       </c>
     </row>
@@ -3627,13 +3633,13 @@
       <c r="A171" s="2">
         <v>36800</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171">
         <v>6.57439446366784</v>
       </c>
       <c r="C171" s="2">
         <v>36800</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171">
         <v>1.73092053501181</v>
       </c>
     </row>
@@ -3641,13 +3647,13 @@
       <c r="A172" s="2">
         <v>36892</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172">
         <v>6.2125107112253399</v>
       </c>
       <c r="C172" s="2">
         <v>36892</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172">
         <v>1.72009382329947</v>
       </c>
     </row>
@@ -3655,13 +3661,13 @@
       <c r="A173" s="2">
         <v>36982</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173">
         <v>1.45530145530146</v>
       </c>
       <c r="C173" s="2">
         <v>36982</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173">
         <v>2.5380710659898398</v>
       </c>
     </row>
@@ -3669,13 +3675,13 @@
       <c r="A174" s="2">
         <v>37073</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174">
         <v>-1.1865793780687299</v>
       </c>
       <c r="C174" s="2">
         <v>37073</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174">
         <v>2.0170674941815201</v>
       </c>
     </row>
@@ -3683,13 +3689,13 @@
       <c r="A175" s="2">
         <v>37165</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175">
         <v>-4.3019480519480799</v>
       </c>
       <c r="C175" s="2">
         <v>37165</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175">
         <v>1.66279969064191</v>
       </c>
     </row>
@@ -3697,13 +3703,13 @@
       <c r="A176" s="2">
         <v>37257</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176">
         <v>-4.1549011698265401</v>
       </c>
       <c r="C176" s="2">
         <v>37257</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176">
         <v>1.9984627209838599</v>
       </c>
     </row>
@@ -3711,13 +3717,13 @@
       <c r="A177" s="2">
         <v>37347</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177">
         <v>-2.0081967213114602</v>
       </c>
       <c r="C177" s="2">
         <v>37347</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177">
         <v>1.29474485910132</v>
       </c>
     </row>
@@ -3725,13 +3731,13 @@
       <c r="A178" s="2">
         <v>37438</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178">
         <v>-0.24844720496894099</v>
       </c>
       <c r="C178" s="2">
         <v>37438</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178">
         <v>1.2167300380228401</v>
       </c>
     </row>
@@ -3739,13 +3745,13 @@
       <c r="A179" s="2">
         <v>37530</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179">
         <v>1.86598812553014</v>
       </c>
       <c r="C179" s="2">
         <v>37530</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179">
         <v>1.1791555724610101</v>
       </c>
     </row>
@@ -3753,13 +3759,13 @@
       <c r="A180" s="2">
         <v>37622</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180">
         <v>1.17845117845118</v>
       </c>
       <c r="C180" s="2">
         <v>37622</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180">
         <v>1.13036925395629</v>
       </c>
     </row>
@@ -3767,13 +3773,13 @@
       <c r="A181" s="2">
         <v>37712</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181">
         <v>-0.62735257214556694</v>
       </c>
       <c r="C181" s="2">
         <v>37712</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181">
         <v>0.78947368421052</v>
       </c>
     </row>
@@ -3781,13 +3787,13 @@
       <c r="A182" s="2">
         <v>37803</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182">
         <v>-1.3698630136986401</v>
       </c>
       <c r="C182" s="2">
         <v>37803</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182">
         <v>1.0518407212621701</v>
       </c>
     </row>
@@ -3795,13 +3801,13 @@
       <c r="A183" s="2">
         <v>37895</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183">
         <v>1.7485428809325501</v>
       </c>
       <c r="C183" s="2">
         <v>37895</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183">
         <v>1.1654135338345799</v>
       </c>
     </row>
@@ -3809,13 +3815,13 @@
       <c r="A184" s="2">
         <v>37987</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184">
         <v>1.5806988352745399</v>
       </c>
       <c r="C184" s="2">
         <v>37987</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184">
         <v>0.968703427719809</v>
       </c>
     </row>
@@ -3823,13 +3829,13 @@
       <c r="A185" s="2">
         <v>38078</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185">
         <v>4.5454545454545503</v>
       </c>
       <c r="C185" s="2">
         <v>38078</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185">
         <v>1.86497575531515</v>
       </c>
     </row>
@@ -3837,13 +3843,13 @@
       <c r="A186" s="2">
         <v>38169</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186">
         <v>4.9242424242424301</v>
       </c>
       <c r="C186" s="2">
         <v>38169</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186">
         <v>1.82156133828997</v>
       </c>
     </row>
@@ -3851,13 +3857,13 @@
       <c r="A187" s="2">
         <v>38261</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187">
         <v>1.43207855973812</v>
       </c>
       <c r="C187" s="2">
         <v>38261</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187">
         <v>2.0066889632107099</v>
       </c>
     </row>
@@ -3865,13 +3871,13 @@
       <c r="A188" s="2">
         <v>38353</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188">
         <v>3.0712530712530701</v>
       </c>
       <c r="C188" s="2">
         <v>38353</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188">
         <v>1.62361623616238</v>
       </c>
     </row>
@@ -3879,13 +3885,13 @@
       <c r="A189" s="2">
         <v>38443</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189">
         <v>2.2544283413848598</v>
       </c>
       <c r="C189" s="2">
         <v>38443</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189">
         <v>1.24496521420726</v>
       </c>
     </row>
@@ -3893,13 +3899,13 @@
       <c r="A190" s="2">
         <v>38534</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190">
         <v>3.4095467308463698</v>
       </c>
       <c r="C190" s="2">
         <v>38534</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190">
         <v>1.6429353778751401</v>
       </c>
     </row>
@@ -3907,13 +3913,13 @@
       <c r="A191" s="2">
         <v>38626</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191">
         <v>6.0911657926583596</v>
       </c>
       <c r="C191" s="2">
         <v>38626</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191">
         <v>1.6757741347905499</v>
       </c>
     </row>
@@ -3921,13 +3927,13 @@
       <c r="A192" s="2">
         <v>38718</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192">
         <v>4.6086611044894799</v>
       </c>
       <c r="C192" s="2">
         <v>38718</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192">
         <v>1.7066085693536599</v>
       </c>
     </row>
@@ -3935,13 +3941,13 @@
       <c r="A193" s="2">
         <v>38808</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193">
         <v>6.4173228346456801</v>
       </c>
       <c r="C193" s="2">
         <v>38808</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193">
         <v>1.8444846292947601</v>
       </c>
     </row>
@@ -3949,13 +3955,13 @@
       <c r="A194" s="2">
         <v>38899</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194">
         <v>7.2536850271528301</v>
       </c>
       <c r="C194" s="2">
         <v>38899</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194">
         <v>1.4727011494252999</v>
       </c>
     </row>
@@ -3963,13 +3969,13 @@
       <c r="A195" s="2">
         <v>38991</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195">
         <v>6.61596958174903</v>
       </c>
       <c r="C195" s="2">
         <v>38991</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195">
         <v>1.28986026513795</v>
       </c>
     </row>
@@ -3977,13 +3983,13 @@
       <c r="A196" s="2">
         <v>39083</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196">
         <v>8.8492214204329596</v>
       </c>
       <c r="C196" s="2">
         <v>39083</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196">
         <v>1.78507675830061</v>
       </c>
     </row>
@@ -3991,13 +3997,13 @@
       <c r="A197" s="2">
         <v>39173</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197">
         <v>6.7702552719200897</v>
       </c>
       <c r="C197" s="2">
         <v>39173</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197">
         <v>2.0596590909090899</v>
       </c>
     </row>
@@ -4005,13 +4011,13 @@
       <c r="A198" s="2">
         <v>39264</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198">
         <v>6.2567811934900597</v>
       </c>
       <c r="C198" s="2">
         <v>39264</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198">
         <v>2.2654867256637101</v>
       </c>
     </row>
@@ -4019,13 +4025,13 @@
       <c r="A199" s="2">
         <v>39356</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199">
         <v>5.9201141226819001</v>
       </c>
       <c r="C199" s="2">
         <v>39356</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199">
         <v>3.0774672798018901</v>
       </c>
     </row>
@@ -4033,13 +4039,13 @@
       <c r="A200" s="2">
         <v>39448</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200">
         <v>5.3733426378227502</v>
       </c>
       <c r="C200" s="2">
         <v>39448</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200">
         <v>2.9463346194317799</v>
       </c>
     </row>
@@ -4047,13 +4053,13 @@
       <c r="A201" s="2">
         <v>39539</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201">
         <v>3.2571032571032501</v>
       </c>
       <c r="C201" s="2">
         <v>39539</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201">
         <v>2.8879610299234799</v>
       </c>
     </row>
@@ -4061,13 +4067,13 @@
       <c r="A202" s="2">
         <v>39630</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202">
         <v>0.34036759700475799</v>
       </c>
       <c r="C202" s="2">
         <v>39630</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202">
         <v>3.0806507442021398</v>
       </c>
     </row>
@@ -4075,13 +4081,13 @@
       <c r="A203" s="2">
         <v>39722</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203">
         <v>-7.71043771043772</v>
       </c>
       <c r="C203" s="2">
         <v>39722</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203">
         <v>1.6129032258064699</v>
       </c>
     </row>
@@ -4089,13 +4095,13 @@
       <c r="A204" s="2">
         <v>39814</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204">
         <v>-21.390728476821199</v>
       </c>
       <c r="C204" s="2">
         <v>39814</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204">
         <v>0.81771720613289001</v>
       </c>
     </row>
@@ -4103,13 +4109,13 @@
       <c r="A205" s="2">
         <v>39904</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205">
         <v>-20.738255033557099</v>
       </c>
       <c r="C205" s="2">
         <v>39904</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205">
         <v>0.27054447074735399</v>
       </c>
     </row>
@@ -4117,13 +4123,13 @@
       <c r="A206" s="2">
         <v>39995</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206">
         <v>-17.198100407055598</v>
       </c>
       <c r="C206" s="2">
         <v>39995</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206">
         <v>-0.23505708529214001</v>
       </c>
     </row>
@@ -4131,13 +4137,13 @@
       <c r="A207" s="2">
         <v>40087</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207">
         <v>-9.1937249179131708</v>
       </c>
       <c r="C207" s="2">
         <v>40087</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207">
         <v>0.40526849037486601</v>
       </c>
     </row>
@@ -4145,13 +4151,13 @@
       <c r="A208" s="2">
         <v>40179</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208">
         <v>6.7818028643639297</v>
       </c>
       <c r="C208" s="2">
         <v>40179</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208">
         <v>0.81108482595470099</v>
       </c>
     </row>
@@ -4159,13 +4165,13 @@
       <c r="A209" s="2">
         <v>40269</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209">
         <v>13.547840812870501</v>
       </c>
       <c r="C209" s="2">
         <v>40269</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209">
         <v>1.11298482293426</v>
       </c>
     </row>
@@ -4173,13 +4179,13 @@
       <c r="A210" s="2">
         <v>40360</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210">
         <v>11.798443260958701</v>
       </c>
       <c r="C210" s="2">
         <v>40360</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210">
         <v>1.11073712554694</v>
       </c>
     </row>
@@ -4187,13 +4193,13 @@
       <c r="A211" s="2">
         <v>40452</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211">
         <v>13.981518682201701</v>
       </c>
       <c r="C211" s="2">
         <v>40452</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211">
         <v>1.3790783720148001</v>
       </c>
     </row>
@@ -4201,13 +4207,13 @@
       <c r="A212" s="2">
         <v>40544</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212">
         <v>13.767258382643</v>
       </c>
       <c r="C212" s="2">
         <v>40544</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212">
         <v>1.87730472678511</v>
       </c>
     </row>
@@ -4215,13 +4221,13 @@
       <c r="A213" s="2">
         <v>40634</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213">
         <v>9.3586875466069994</v>
       </c>
       <c r="C213" s="2">
         <v>40634</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213">
         <v>2.0013342228152</v>
       </c>
     </row>
@@ -4229,13 +4235,13 @@
       <c r="A214" s="2">
         <v>40725</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214">
         <v>8.9043605716379393</v>
       </c>
       <c r="C214" s="2">
         <v>40725</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214">
         <v>2.1970705725699098</v>
       </c>
     </row>
@@ -4243,13 +4249,13 @@
       <c r="A215" s="2">
         <v>40817</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215">
         <v>3.5953471977441001</v>
       </c>
       <c r="C215" s="2">
         <v>40817</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215">
         <v>2.2229595222295999</v>
       </c>
     </row>
@@ -4257,13 +4263,13 @@
       <c r="A216" s="2">
         <v>40909</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216">
         <v>1.56033287101248</v>
       </c>
       <c r="C216" s="2">
         <v>40909</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216">
         <v>2.13886146758803</v>
       </c>
     </row>
@@ -4271,13 +4277,13 @@
       <c r="A217" s="2">
         <v>41000</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217">
         <v>-0.30685305148311998</v>
       </c>
       <c r="C217" s="2">
         <v>41000</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217">
         <v>1.8639633747547399</v>
       </c>
     </row>
@@ -4285,13 +4291,13 @@
       <c r="A218" s="2">
         <v>41091</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218">
         <v>-1.1103633916554301</v>
       </c>
       <c r="C218" s="2">
         <v>41091</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218">
         <v>2.0195439739413699</v>
       </c>
     </row>
@@ -4299,13 +4305,13 @@
       <c r="A219" s="2">
         <v>41183</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219">
         <v>-2.41578768288535</v>
       </c>
       <c r="C219" s="2">
         <v>41183</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219">
         <v>2.01233365790327</v>
       </c>
     </row>
@@ -4313,13 +4319,13 @@
       <c r="A220" s="2">
         <v>41275</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220">
         <v>-2.0143393649709802</v>
       </c>
       <c r="C220" s="2">
         <v>41275</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220">
         <v>1.5463917525773201</v>
       </c>
     </row>
@@ -4327,13 +4333,13 @@
       <c r="A221" s="2">
         <v>41365</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221">
         <v>-0.205198358413131</v>
       </c>
       <c r="C221" s="2">
         <v>41365</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221">
         <v>1.50882825040127</v>
       </c>
     </row>
@@ -4341,13 +4347,13 @@
       <c r="A222" s="2">
         <v>41456</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222">
         <v>-0.17012589316096399</v>
       </c>
       <c r="C222" s="2">
         <v>41456</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222">
         <v>1.6283524904214599</v>
       </c>
     </row>
@@ -4355,13 +4361,13 @@
       <c r="A223" s="2">
         <v>41548</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223">
         <v>3.5564853556485199</v>
       </c>
       <c r="C223" s="2">
         <v>41548</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223">
         <v>1.3363028953229401</v>
       </c>
     </row>
@@ -4369,13 +4375,13 @@
       <c r="A224" s="2">
         <v>41640</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224">
         <v>4.0069686411149901</v>
       </c>
       <c r="C224" s="2">
         <v>41640</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224">
         <v>1.2055837563451799</v>
       </c>
     </row>
@@ -4383,13 +4389,13 @@
       <c r="A225" s="2">
         <v>41730</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225">
         <v>1.74777244688144</v>
       </c>
       <c r="C225" s="2">
         <v>41730</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225">
         <v>1.0752688172042999</v>
       </c>
     </row>
@@ -4397,13 +4403,13 @@
       <c r="A226" s="2">
         <v>41821</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226">
         <v>1.12474437627813</v>
       </c>
       <c r="C226" s="2">
         <v>41821</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226">
         <v>0.84825636192271703</v>
       </c>
     </row>
@@ -4411,13 +4417,13 @@
       <c r="A227" s="2">
         <v>41913</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227">
         <v>0.94276094276095201</v>
       </c>
       <c r="C227" s="2">
         <v>41913</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227">
         <v>0.50235478806907297</v>
       </c>
     </row>
@@ -4425,13 +4431,13 @@
       <c r="A228" s="2">
         <v>42005</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228">
         <v>-0.53601340033500999</v>
       </c>
       <c r="C228" s="2">
         <v>42005</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228">
         <v>-5.1111500087518698E-2</v>
       </c>
     </row>
@@ -4439,13 +4445,13 @@
       <c r="A229" s="2">
         <v>42095</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229">
         <v>1.3135735938025901</v>
       </c>
       <c r="C229" s="2">
         <v>42095</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229">
         <v>0.96885065723018404</v>
       </c>
     </row>
@@ -4453,13 +4459,13 @@
       <c r="A230" s="2">
         <v>42186</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230">
         <v>1.0448264239973</v>
       </c>
       <c r="C230" s="2">
         <v>42186</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230">
         <v>0.72887708145548602</v>
       </c>
     </row>
@@ -4467,13 +4473,13 @@
       <c r="A231" s="2">
         <v>42278</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231">
         <v>-0.20013342228151901</v>
       </c>
       <c r="C231" s="2">
         <v>42278</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231">
         <v>0.40923125228949497</v>
       </c>
     </row>
@@ -4481,13 +4487,13 @@
       <c r="A232" s="2">
         <v>42370</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232">
         <v>1.9198383294038299</v>
       </c>
       <c r="C232" s="2">
         <v>42370</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232">
         <v>0.30262273032952303</v>
       </c>
     </row>
@@ -4495,13 +4501,13 @@
       <c r="A233" s="2">
         <v>42461</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233">
         <v>0.13297872340428299</v>
       </c>
       <c r="C233" s="2">
         <v>42461</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233">
         <v>0.13289036544849001</v>
       </c>
     </row>
@@ -4509,13 +4515,13 @@
       <c r="A234" s="2">
         <v>42552</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234">
         <v>0.70046697798531599</v>
       </c>
       <c r="C234" s="2">
         <v>42552</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234">
         <v>0.49734748010608998</v>
       </c>
     </row>
@@ -4523,13 +4529,13 @@
       <c r="A235" s="2">
         <v>42644</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235">
         <v>1.1697860962566899</v>
       </c>
       <c r="C235" s="2">
         <v>42644</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235">
         <v>1.0340226817878699</v>
       </c>
     </row>
@@ -4537,13 +4543,13 @@
       <c r="A236" s="2">
         <v>42736</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236">
         <v>0.66093853271646497</v>
       </c>
       <c r="C236" s="2">
         <v>42736</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236">
         <v>1.64264163593696</v>
       </c>
     </row>
@@ -4551,13 +4557,13 @@
       <c r="A237" s="2">
         <v>42826</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237">
         <v>2.9548472775564201</v>
       </c>
       <c r="C237" s="2">
         <v>42826</v>
       </c>
-      <c r="D237" s="3">
+      <c r="D237">
         <v>1.42667551426675</v>
       </c>
     </row>
@@ -4565,13 +4571,13 @@
       <c r="A238" s="2">
         <v>42917</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238">
         <v>4.6704206690957397</v>
       </c>
       <c r="C238" s="2">
         <v>42917</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D238">
         <v>1.5506433520290399</v>
       </c>
     </row>
@@ -4579,13 +4585,13 @@
       <c r="A239" s="2">
         <v>43009</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239">
         <v>5.1866534522629602</v>
       </c>
       <c r="C239" s="2">
         <v>43009</v>
       </c>
-      <c r="D239" s="3">
+      <c r="D239">
         <v>1.41961043248597</v>
       </c>
     </row>
@@ -4593,13 +4599,13 @@
       <c r="A240" s="2">
         <v>43101</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240">
         <v>4.0709126723572</v>
       </c>
       <c r="C240" s="2">
         <v>43101</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D240">
         <v>1.3192612137203299</v>
       </c>
     </row>
@@ -4607,13 +4613,13 @@
       <c r="A241" s="2">
         <v>43191</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241">
         <v>3.0312802321831902</v>
       </c>
       <c r="C241" s="2">
         <v>43191</v>
       </c>
-      <c r="D241" s="3">
+      <c r="D241">
         <v>1.7337258750409199</v>
       </c>
     </row>
@@ -4621,13 +4627,13 @@
       <c r="A242" s="2">
         <v>43282</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242">
         <v>-0.189873417721517</v>
       </c>
       <c r="C242" s="2">
         <v>43282</v>
       </c>
-      <c r="D242" s="3">
+      <c r="D242">
         <v>1.8843404808317199</v>
       </c>
     </row>
@@ -4635,13 +4641,13 @@
       <c r="A243" s="2">
         <v>43374</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243">
         <v>-2.0414572864321499</v>
       </c>
       <c r="C243" s="2">
         <v>43374</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D243">
         <v>1.9856770833333299</v>
       </c>
     </row>
@@ -4649,13 +4655,13 @@
       <c r="A244" s="2">
         <v>43466</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244">
         <v>-1.7034700315457401</v>
       </c>
       <c r="C244" s="2">
         <v>43466</v>
       </c>
-      <c r="D244" s="3">
+      <c r="D244">
         <v>1.3671875</v>
       </c>
     </row>
@@ -4663,13 +4669,13 @@
       <c r="A245" s="2">
         <v>43556</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245">
         <v>-3.31768388106418</v>
       </c>
       <c r="C245" s="2">
         <v>43556</v>
       </c>
-      <c r="D245" s="3">
+      <c r="D245">
         <v>1.70418006430866</v>
       </c>
     </row>
@@ -4677,13 +4683,13 @@
       <c r="A246" s="2">
         <v>43647</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246">
         <v>-3.1071655041217499</v>
       </c>
       <c r="C246" s="2">
         <v>43647</v>
       </c>
-      <c r="D246" s="3">
+      <c r="D246">
         <v>1.46683673469386</v>
       </c>
     </row>
@@ -4691,13 +4697,13 @@
       <c r="A247" s="2">
         <v>43739</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247">
         <v>-3.8153254248156401</v>
       </c>
       <c r="C247" s="2">
         <v>43739</v>
       </c>
-      <c r="D247" s="3">
+      <c r="D247">
         <v>1.2448132780082899</v>
       </c>
     </row>
@@ -4705,13 +4711,13 @@
       <c r="A248" s="2">
         <v>43831</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248">
         <v>-5.0706033376123401</v>
       </c>
       <c r="C248" s="2">
         <v>43831</v>
       </c>
-      <c r="D248" s="3">
+      <c r="D248">
         <v>1.63776493256261</v>
       </c>
     </row>
@@ -4719,13 +4725,13 @@
       <c r="A249" s="2">
         <v>43922</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249">
         <v>-22.175461314341199</v>
       </c>
       <c r="C249" s="2">
         <v>43922</v>
       </c>
-      <c r="D249" s="3">
+      <c r="D249">
         <v>0.75877331647170498</v>
       </c>
     </row>
@@ -4733,13 +4739,13 @@
       <c r="A250" s="2">
         <v>44013</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250">
         <v>-9.7185863874345699</v>
       </c>
       <c r="C250" s="2">
         <v>44013</v>
       </c>
-      <c r="D250" s="3">
+      <c r="D250">
         <v>-9.4280326838455997E-2</v>
       </c>
     </row>
@@ -4747,13 +4753,13 @@
       <c r="A251" s="2">
         <v>44105</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251">
         <v>-1.8333333333333499</v>
       </c>
       <c r="C251" s="2">
         <v>44105</v>
       </c>
-      <c r="D251" s="3">
+      <c r="D251">
         <v>-0.252206809583852</v>
       </c>
     </row>
@@ -4761,13 +4767,13 @@
       <c r="A252" s="2">
         <v>44197</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252">
         <v>-0.70993914807301495</v>
       </c>
       <c r="C252" s="2">
         <v>44197</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D252">
         <v>1.3586097946287701</v>
       </c>
     </row>
@@ -4775,13 +4781,13 @@
       <c r="A253" s="2">
         <v>44287</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253">
         <v>21.173044925124799</v>
       </c>
       <c r="C253" s="2">
         <v>44287</v>
       </c>
-      <c r="D253" s="3">
+      <c r="D253">
         <v>2.29055538123627</v>
       </c>
     </row>
@@ -4789,13 +4795,13 @@
       <c r="A254" s="2">
         <v>44378</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254">
         <v>2.6096411743385302</v>
       </c>
       <c r="C254" s="2">
         <v>44378</v>
       </c>
-      <c r="D254" s="3">
+      <c r="D254">
         <v>3.9005976722239599</v>
       </c>
     </row>
@@ -4803,13 +4809,13 @@
       <c r="A255" s="2">
         <v>44470</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255">
         <v>-1.42614601018675</v>
       </c>
       <c r="C255" s="2">
         <v>44470</v>
       </c>
-      <c r="D255" s="3">
+      <c r="D255">
         <v>5.0252844500632099</v>
       </c>
     </row>
@@ -4817,13 +4823,13 @@
       <c r="A256" s="2">
         <v>44562</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256">
         <v>-1.32788559754852</v>
       </c>
       <c r="C256" s="2">
         <v>44562</v>
       </c>
-      <c r="D256" s="3">
+      <c r="D256">
         <v>5.7668329177057203</v>
       </c>
     </row>
@@ -4831,13 +4837,13 @@
       <c r="A257" s="2">
         <v>44652</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257">
         <v>-1.4074836937864601</v>
       </c>
       <c r="C257" s="2">
         <v>44652</v>
       </c>
-      <c r="D257" s="3">
+      <c r="D257">
         <v>7.6380368098159703</v>
       </c>
     </row>
@@ -4845,13 +4851,13 @@
       <c r="A258" s="2">
         <v>44743</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258">
         <v>2.1193924408336402</v>
       </c>
       <c r="C258" s="2">
         <v>44743</v>
       </c>
-      <c r="D258" s="3">
+      <c r="D258">
         <v>8.4771419921283808</v>
       </c>
     </row>
